--- a/MySQL/configuration/parametros.xlsx
+++ b/MySQL/configuration/parametros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EF304D-CBDC-4F93-907E-19FC2CE8F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5B8E36-3CEB-4F08-80D9-B861CCBE8279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>id_parametro</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>REPETICIONES</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,6 +405,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MySQL/configuration/parametros.xlsx
+++ b/MySQL/configuration/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5B8E36-3CEB-4F08-80D9-B861CCBE8279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262EE7C-9508-44E0-85AD-F6E3A924C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>id_parametro</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>DESTINO</t>
+  </si>
+  <si>
+    <t>ESTACION_DESTINO</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +436,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
